--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>973339.5548463289</v>
+        <v>970491.365219492</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673417</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.86094179307565</v>
+        <v>19.3688098601282</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="L2" t="n">
-        <v>8.240236561098385</v>
+        <v>8.240236561100176</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.507868067058054</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -753,16 +753,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.827660750589478</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22.82047985378995</v>
+        <v>6.827660750586791</v>
       </c>
       <c r="J3" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="K3" t="n">
-        <v>13.2726179046287</v>
+        <v>13.27261790462967</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>32.68636186295921</v>
       </c>
       <c r="H5" t="n">
-        <v>16.26110946101669</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -938,7 +938,7 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44799022605971</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>12.84193026251983</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>64.54245901085127</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>83.13719072031593</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.396679373398285</v>
       </c>
       <c r="D9" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>89.49227226221132</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>3.625377488803587</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.2377928517801</v>
+        <v>230.5293923059308</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>128.6209786387646</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.15430803805642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>133.8960114341185</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>107.8591896338402</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.3099034802228</v>
@@ -1625,7 +1625,7 @@
         <v>288.3419405557222</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>17.98965543945175</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>95.24586401568264</v>
       </c>
       <c r="T14" t="n">
         <v>201.239718576303</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9462261850435</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>86.43532762764653</v>
       </c>
       <c r="I15" t="n">
-        <v>7.546487457097186</v>
+        <v>7.546487457097214</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>53.83522374364503</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7513658948475</v>
+        <v>141.6754642902646</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3149728036959</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.09919003974909</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>218.3763319019425</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1968686221121</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G17" t="n">
-        <v>378.6997011280089</v>
+        <v>378.699701128009</v>
       </c>
       <c r="H17" t="n">
-        <v>256.7317382035083</v>
+        <v>256.7317382035084</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.63566166346867</v>
+        <v>63.63566166346879</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>169.6295162240892</v>
       </c>
       <c r="U17" t="n">
-        <v>211.2451023487663</v>
+        <v>219.3360238328297</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>160.4004606180998</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>86.43532762764653</v>
       </c>
       <c r="I18" t="n">
-        <v>7.546487457097186</v>
+        <v>7.546487457097214</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>91.61092359897395</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.1411635426335</v>
+        <v>134.1411635426336</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32839973242518</v>
+        <v>110.7047704514821</v>
       </c>
       <c r="I19" t="n">
-        <v>56.48898768753511</v>
+        <v>56.48898768753524</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.98202365203522</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3760410507332</v>
+        <v>153.3760410507333</v>
       </c>
       <c r="T19" t="n">
-        <v>186.7661295497286</v>
+        <v>186.7661295497287</v>
       </c>
       <c r="U19" t="n">
         <v>254.5866662698982</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G20" t="n">
-        <v>378.6997011280089</v>
+        <v>378.699701128009</v>
       </c>
       <c r="H20" t="n">
-        <v>256.7317382035083</v>
+        <v>256.7317382035084</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.63566166346877</v>
       </c>
       <c r="T20" t="n">
-        <v>169.6295162240891</v>
+        <v>169.6295162240892</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3360238328295</v>
+        <v>219.3360238328297</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>139.9103286570443</v>
       </c>
       <c r="X20" t="n">
-        <v>224.036122281572</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
-        <v>134.1411635426335</v>
+        <v>134.1411635426336</v>
       </c>
       <c r="H22" t="n">
         <v>110.704770451482</v>
       </c>
       <c r="I22" t="n">
-        <v>56.48898768753511</v>
+        <v>56.48898768753521</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.98202365203522</v>
+        <v>44.98202365203532</v>
       </c>
       <c r="S22" t="n">
-        <v>153.3760410507332</v>
+        <v>82.99967033167343</v>
       </c>
       <c r="T22" t="n">
-        <v>186.7661295497286</v>
+        <v>186.7661295497287</v>
       </c>
       <c r="U22" t="n">
         <v>254.5866662698982</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>123.723082317767</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2476,25 +2476,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453021</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221378</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.320167720045</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -3001,10 +3001,10 @@
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612646</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.823760294355</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3275,16 +3275,16 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
         <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-1.927418225022848e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659984</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,16 +3478,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998808</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295163</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139452998</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221564</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
         <v>323.072839268469</v>
@@ -3749,13 +3749,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E43" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453005</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401425</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998808</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295186</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659974</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221586</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
         <v>186.4872700401421</v>
@@ -4198,7 +4198,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998809</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="C2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="D2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="E2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="F2" t="n">
-        <v>78.77291556791788</v>
+        <v>84.3364186659485</v>
       </c>
       <c r="G2" t="n">
-        <v>64.77196426178085</v>
+        <v>64.77196426177861</v>
       </c>
       <c r="H2" t="n">
-        <v>64.77196426178085</v>
+        <v>64.77196426177861</v>
       </c>
       <c r="I2" t="n">
-        <v>64.77196426178085</v>
+        <v>64.77196426177861</v>
       </c>
       <c r="J2" t="n">
-        <v>64.77196426178085</v>
+        <v>64.77196426177861</v>
       </c>
       <c r="K2" t="n">
-        <v>41.72097451047788</v>
+        <v>41.7209745104776</v>
       </c>
       <c r="L2" t="n">
-        <v>33.39750323664113</v>
+        <v>33.39750323663904</v>
       </c>
       <c r="M2" t="n">
-        <v>55.98977829189317</v>
+        <v>55.98977829188915</v>
       </c>
       <c r="N2" t="n">
-        <v>78.58205334714522</v>
+        <v>78.58205334713927</v>
       </c>
       <c r="O2" t="n">
-        <v>91.28191941515979</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="P2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="R2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="S2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="T2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="U2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="V2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="W2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="X2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="Y2" t="n">
-        <v>85.71841631712135</v>
+        <v>91.28191941515198</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="C3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="D3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="E3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="F3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="G3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="H3" t="n">
-        <v>61.33430264305936</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="I3" t="n">
-        <v>38.28331289175638</v>
+        <v>38.28331289175523</v>
       </c>
       <c r="J3" t="n">
-        <v>15.2323231404534</v>
+        <v>15.23232314045422</v>
       </c>
       <c r="K3" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="L3" t="n">
-        <v>24.41791344355525</v>
+        <v>24.41791344355315</v>
       </c>
       <c r="M3" t="n">
-        <v>32.8960721261535</v>
+        <v>47.01018849880327</v>
       </c>
       <c r="N3" t="n">
-        <v>55.48834718140554</v>
+        <v>68.68964435990186</v>
       </c>
       <c r="O3" t="n">
-        <v>78.08062223665759</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="P3" t="n">
-        <v>91.28191941515979</v>
+        <v>91.28191941515198</v>
       </c>
       <c r="Q3" t="n">
-        <v>68.23092966385681</v>
+        <v>68.23092966385097</v>
       </c>
       <c r="R3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="S3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="T3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="U3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="V3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="W3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="X3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
       <c r="Y3" t="n">
-        <v>68.23092966385681</v>
+        <v>45.17993991254997</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="C4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="D4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="E4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="F4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="G4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="H4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="I4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="J4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="K4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="L4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="M4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="N4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="O4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="P4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="R4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="S4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="T4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="U4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="V4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="W4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="X4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.825638388303196</v>
+        <v>1.82563838830304</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>154.9161459087924</v>
+      </c>
+      <c r="C5" t="n">
+        <v>154.9161459087924</v>
+      </c>
+      <c r="D5" t="n">
+        <v>154.9161459087924</v>
+      </c>
+      <c r="E5" t="n">
+        <v>154.9161459087924</v>
+      </c>
+      <c r="F5" t="n">
         <v>104.6181590127069</v>
       </c>
-      <c r="C5" t="n">
-        <v>104.6181590127069</v>
-      </c>
-      <c r="D5" t="n">
-        <v>104.6181590127069</v>
-      </c>
-      <c r="E5" t="n">
-        <v>104.6181590127069</v>
-      </c>
-      <c r="F5" t="n">
-        <v>97.67265826350346</v>
-      </c>
       <c r="G5" t="n">
-        <v>83.82687982130346</v>
+        <v>71.6016318784047</v>
       </c>
       <c r="H5" t="n">
-        <v>67.40151672936742</v>
+        <v>71.6016318784047</v>
       </c>
       <c r="I5" t="n">
-        <v>67.40151672936742</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="J5" t="n">
         <v>21.30364498231921</v>
@@ -4586,31 +4586,31 @@
         <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>104.6181590127069</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="R5" t="n">
-        <v>104.6181590127069</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="S5" t="n">
-        <v>104.6181590127069</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="T5" t="n">
-        <v>104.6181590127069</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="U5" t="n">
-        <v>104.6181590127069</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="V5" t="n">
-        <v>104.6181590127069</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="W5" t="n">
-        <v>104.6181590127069</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="X5" t="n">
-        <v>104.6181590127069</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.6181590127069</v>
+        <v>154.9161459087924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G6" t="n">
-        <v>117.551221084159</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>100.9370895426845</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4656,7 +4656,7 @@
         <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
         <v>170.4401317516709</v>
@@ -4668,28 +4668,28 @@
         <v>167.8492079802444</v>
       </c>
       <c r="R6" t="n">
-        <v>167.8492079802444</v>
+        <v>117.551221084159</v>
       </c>
       <c r="S6" t="n">
-        <v>167.8492079802444</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="T6" t="n">
-        <v>167.8492079802444</v>
+        <v>16.95524729198798</v>
       </c>
       <c r="U6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="V6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="W6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="X6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
     </row>
     <row r="7">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319.4361956081386</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="C8" t="n">
-        <v>319.4361956081386</v>
+        <v>367.4869038041713</v>
       </c>
       <c r="D8" t="n">
-        <v>319.4361956081386</v>
+        <v>367.4869038041713</v>
       </c>
       <c r="E8" t="n">
-        <v>319.4361956081386</v>
+        <v>367.4869038041713</v>
       </c>
       <c r="F8" t="n">
-        <v>206.191084370842</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="G8" t="n">
-        <v>92.94597313354534</v>
+        <v>140.996681329578</v>
       </c>
       <c r="H8" t="n">
-        <v>92.94597313354534</v>
+        <v>140.996681329578</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993892</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="J8" t="n">
         <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687554</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773416</v>
+        <v>97.73708609773399</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4829,25 +4829,25 @@
         <v>432.6813068454352</v>
       </c>
       <c r="S8" t="n">
-        <v>319.4361956081386</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="T8" t="n">
-        <v>319.4361956081386</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="U8" t="n">
-        <v>319.4361956081386</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="V8" t="n">
-        <v>319.4361956081386</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="W8" t="n">
-        <v>319.4361956081386</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="X8" t="n">
-        <v>319.4361956081386</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="Y8" t="n">
-        <v>319.4361956081386</v>
+        <v>432.6813068454352</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>356.1757398283467</v>
+      </c>
+      <c r="C9" t="n">
+        <v>348.7043465218837</v>
+      </c>
+      <c r="D9" t="n">
+        <v>235.4592352845871</v>
+      </c>
+      <c r="E9" t="n">
         <v>122.2141240472905</v>
-      </c>
-      <c r="C9" t="n">
-        <v>122.2141240472905</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.969012809993892</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.969012809993892</v>
       </c>
       <c r="F9" t="n">
         <v>8.969012809993892</v>
@@ -4884,19 +4884,19 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>36.22166818534551</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1887676792232</v>
+        <v>91.93611230387162</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>202.927645827546</v>
       </c>
       <c r="N9" t="n">
-        <v>341.1718347265721</v>
+        <v>287.4309731640694</v>
       </c>
       <c r="O9" t="n">
-        <v>441.223936157822</v>
+        <v>387.4830745953194</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996946</v>
@@ -4905,28 +4905,28 @@
         <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="S9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="T9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="U9" t="n">
-        <v>348.7043465218837</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="V9" t="n">
-        <v>348.7043465218837</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="W9" t="n">
-        <v>235.4592352845871</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="X9" t="n">
-        <v>235.4592352845871</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="Y9" t="n">
-        <v>235.4592352845871</v>
+        <v>356.1757398283467</v>
       </c>
     </row>
     <row r="10">
@@ -4966,7 +4966,7 @@
         <v>12.63101027343186</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="M10" t="n">
         <v>8.969012809993892</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1502.309837160186</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C11" t="n">
-        <v>1133.347320219774</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D11" t="n">
-        <v>775.0816216130238</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130238</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
         <v>364.0957168234162</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1502.309837160186</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>795.2798542473297</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="C13" t="n">
-        <v>626.3436713194226</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D13" t="n">
-        <v>626.3436713194226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E13" t="n">
-        <v>478.4305777370295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5203,46 +5203,46 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415546</v>
+        <v>1605.688483472122</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.59460854119</v>
+        <v>1316.585616597766</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.910120335303</v>
+        <v>1061.901128391879</v>
       </c>
       <c r="W13" t="n">
-        <v>1071.910120335303</v>
+        <v>772.4839583549181</v>
       </c>
       <c r="X13" t="n">
-        <v>843.9205694372856</v>
+        <v>544.4944074569011</v>
       </c>
       <c r="Y13" t="n">
-        <v>795.2798542473297</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2034.303988186378</v>
+        <v>1684.615008185644</v>
       </c>
       <c r="C14" t="n">
-        <v>1665.341471245967</v>
+        <v>1549.366511787544</v>
       </c>
       <c r="D14" t="n">
-        <v>1307.075772639216</v>
+        <v>1191.100813180794</v>
       </c>
       <c r="E14" t="n">
-        <v>1198.127096241398</v>
+        <v>805.3125605825496</v>
       </c>
       <c r="F14" t="n">
-        <v>787.1411914517903</v>
+        <v>805.3125605825496</v>
       </c>
       <c r="G14" t="n">
-        <v>372.6867434919693</v>
+        <v>390.8581126227286</v>
       </c>
       <c r="H14" t="n">
-        <v>81.43225808214888</v>
+        <v>99.60362721290818</v>
       </c>
       <c r="I14" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="J14" t="n">
-        <v>321.7197547946557</v>
+        <v>321.7197547946562</v>
       </c>
       <c r="K14" t="n">
-        <v>732.5869425049084</v>
+        <v>732.5869425049086</v>
       </c>
       <c r="L14" t="n">
         <v>1279.20578207939</v>
       </c>
       <c r="M14" t="n">
-        <v>1919.094000724847</v>
+        <v>1919.094000724846</v>
       </c>
       <c r="N14" t="n">
         <v>2573.950088109355</v>
       </c>
       <c r="O14" t="n">
-        <v>3178.976860646708</v>
+        <v>3178.976860646707</v>
       </c>
       <c r="P14" t="n">
-        <v>3660.852212359286</v>
+        <v>3660.852212359284</v>
       </c>
       <c r="Q14" t="n">
-        <v>3974.547786707334</v>
+        <v>3974.547786707332</v>
       </c>
       <c r="R14" t="n">
-        <v>4071.612904107444</v>
+        <v>4071.612904107442</v>
       </c>
       <c r="S14" t="n">
-        <v>4071.612904107444</v>
+        <v>3975.404960657258</v>
       </c>
       <c r="T14" t="n">
-        <v>3868.340461101077</v>
+        <v>3772.132517650891</v>
       </c>
       <c r="U14" t="n">
-        <v>3868.340461101077</v>
+        <v>3518.651481100342</v>
       </c>
       <c r="V14" t="n">
-        <v>3537.277573757507</v>
+        <v>3187.588593756771</v>
       </c>
       <c r="W14" t="n">
-        <v>3184.508918487392</v>
+        <v>2834.819938486657</v>
       </c>
       <c r="X14" t="n">
-        <v>2811.043160226312</v>
+        <v>2461.354180225577</v>
       </c>
       <c r="Y14" t="n">
-        <v>2420.9038282505</v>
+        <v>2071.214848249766</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.3633844303749</v>
       </c>
       <c r="H15" t="n">
-        <v>89.05497268527735</v>
+        <v>89.05497268527733</v>
       </c>
       <c r="I15" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="J15" t="n">
-        <v>81.43225808214888</v>
+        <v>205.7279980329771</v>
       </c>
       <c r="K15" t="n">
-        <v>372.0282999172191</v>
+        <v>496.3240398680472</v>
       </c>
       <c r="L15" t="n">
-        <v>390.7795219637187</v>
+        <v>933.3888210494162</v>
       </c>
       <c r="M15" t="n">
-        <v>920.1703747607243</v>
+        <v>1462.779673846421</v>
       </c>
       <c r="N15" t="n">
-        <v>1477.981273095368</v>
+        <v>2020.590572181065</v>
       </c>
       <c r="O15" t="n">
-        <v>1966.049472668247</v>
+        <v>2185.039500429579</v>
       </c>
       <c r="P15" t="n">
-        <v>2338.434165434757</v>
+        <v>2557.424193196089</v>
       </c>
       <c r="Q15" t="n">
-        <v>2537.444274414813</v>
+        <v>2557.424193196089</v>
       </c>
       <c r="R15" t="n">
         <v>2557.424193196089</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>748.1565745732651</v>
+        <v>1071.136229718563</v>
       </c>
       <c r="C16" t="n">
-        <v>693.7775606907953</v>
+        <v>902.2000467906563</v>
       </c>
       <c r="D16" t="n">
-        <v>543.6609212784596</v>
+        <v>752.0834073783205</v>
       </c>
       <c r="E16" t="n">
-        <v>395.7478276960665</v>
+        <v>604.1703137959274</v>
       </c>
       <c r="F16" t="n">
-        <v>248.8578801981565</v>
+        <v>457.2803662980171</v>
       </c>
       <c r="G16" t="n">
-        <v>81.43225808214888</v>
+        <v>314.1738367118913</v>
       </c>
       <c r="H16" t="n">
-        <v>81.43225808214888</v>
+        <v>170.4213389303802</v>
       </c>
       <c r="I16" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="J16" t="n">
         <v>145.7639349251849</v>
       </c>
       <c r="K16" t="n">
-        <v>381.3174786021268</v>
+        <v>381.3174786021266</v>
       </c>
       <c r="L16" t="n">
-        <v>738.271350864925</v>
+        <v>738.2713508649249</v>
       </c>
       <c r="M16" t="n">
         <v>1125.018283634586</v>
@@ -5467,19 +5467,19 @@
         <v>1990.983994627311</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.89624854437</v>
+        <v>1990.983994627311</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.211760338483</v>
+        <v>1990.983994627311</v>
       </c>
       <c r="W16" t="n">
-        <v>1157.794590301522</v>
+        <v>1701.56682459035</v>
       </c>
       <c r="X16" t="n">
-        <v>929.8050394035048</v>
+        <v>1473.577273692333</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.8050394035048</v>
+        <v>1252.784694548803</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2119.566580433992</v>
+        <v>2119.566580433993</v>
       </c>
       <c r="C17" t="n">
-        <v>1782.533560819049</v>
+        <v>1782.53356081905</v>
       </c>
       <c r="D17" t="n">
-        <v>1456.197359537767</v>
+        <v>1456.197359537768</v>
       </c>
       <c r="E17" t="n">
         <v>1102.338604264992</v>
       </c>
       <c r="F17" t="n">
-        <v>723.2821968008529</v>
+        <v>723.2821968008534</v>
       </c>
       <c r="G17" t="n">
-        <v>340.7572461665006</v>
+        <v>340.7572461665007</v>
       </c>
       <c r="H17" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="I17" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="J17" t="n">
         <v>321.7197547946562</v>
       </c>
       <c r="K17" t="n">
-        <v>732.5869425049091</v>
+        <v>732.5869425049082</v>
       </c>
       <c r="L17" t="n">
-        <v>1279.205782079391</v>
+        <v>1279.20578207939</v>
       </c>
       <c r="M17" t="n">
-        <v>1919.094000724847</v>
+        <v>1919.094000724846</v>
       </c>
       <c r="N17" t="n">
-        <v>2573.950088109356</v>
+        <v>2573.950088109355</v>
       </c>
       <c r="O17" t="n">
-        <v>3178.976860646707</v>
+        <v>3178.976860646706</v>
       </c>
       <c r="P17" t="n">
-        <v>3660.852212359285</v>
+        <v>3660.852212359284</v>
       </c>
       <c r="Q17" t="n">
-        <v>3974.547786707333</v>
+        <v>3974.547786707332</v>
       </c>
       <c r="R17" t="n">
-        <v>4071.612904107444</v>
+        <v>4071.612904107442</v>
       </c>
       <c r="S17" t="n">
-        <v>4007.334457982728</v>
+        <v>4007.334457982726</v>
       </c>
       <c r="T17" t="n">
-        <v>4007.334457982728</v>
+        <v>3835.991512301828</v>
       </c>
       <c r="U17" t="n">
-        <v>3793.955566721348</v>
+        <v>3614.439973076747</v>
       </c>
       <c r="V17" t="n">
-        <v>3494.822176703246</v>
+        <v>3315.306583058645</v>
       </c>
       <c r="W17" t="n">
-        <v>3173.9830187586</v>
+        <v>2994.467425114</v>
       </c>
       <c r="X17" t="n">
-        <v>2832.446757822989</v>
+        <v>2832.44675782299</v>
       </c>
       <c r="Y17" t="n">
-        <v>2474.236923172646</v>
+        <v>2474.236923172647</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>176.3633844303749</v>
       </c>
       <c r="H18" t="n">
-        <v>89.05497268527735</v>
+        <v>89.05497268527733</v>
       </c>
       <c r="I18" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="J18" t="n">
-        <v>81.43225808214888</v>
+        <v>205.7279980329771</v>
       </c>
       <c r="K18" t="n">
-        <v>81.43225808214888</v>
+        <v>496.3240398680472</v>
       </c>
       <c r="L18" t="n">
-        <v>518.497039263518</v>
+        <v>933.3888210494162</v>
       </c>
       <c r="M18" t="n">
-        <v>940.1502935419998</v>
+        <v>1462.779673846421</v>
       </c>
       <c r="N18" t="n">
-        <v>1497.961191876643</v>
+        <v>2020.590572181065</v>
       </c>
       <c r="O18" t="n">
-        <v>1986.029391449522</v>
+        <v>2020.590572181065</v>
       </c>
       <c r="P18" t="n">
         <v>2358.414084216033</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.8615978196021</v>
+        <v>846.2979853469083</v>
       </c>
       <c r="C19" t="n">
-        <v>663.8549122171638</v>
+        <v>709.2912997444698</v>
       </c>
       <c r="D19" t="n">
-        <v>545.6677701302967</v>
+        <v>616.7550132808595</v>
       </c>
       <c r="E19" t="n">
-        <v>429.6841738733723</v>
+        <v>500.771417023935</v>
       </c>
       <c r="F19" t="n">
-        <v>314.7237237009306</v>
+        <v>385.8109668514932</v>
       </c>
       <c r="G19" t="n">
-        <v>179.2275989103916</v>
+        <v>250.3148420609541</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4918416049116</v>
+        <v>138.4918416049117</v>
       </c>
       <c r="I19" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="J19" t="n">
-        <v>177.0580352538768</v>
+        <v>177.0580352538766</v>
       </c>
       <c r="K19" t="n">
-        <v>443.9056792595104</v>
+        <v>443.9056792595096</v>
       </c>
       <c r="L19" t="n">
-        <v>832.1536518510006</v>
+        <v>832.1536518509995</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.194684949353</v>
+        <v>1250.194684949352</v>
       </c>
       <c r="N19" t="n">
-        <v>1664.474356830195</v>
+        <v>1664.474356830194</v>
       </c>
       <c r="O19" t="n">
-        <v>2033.501324983835</v>
+        <v>2033.501324983834</v>
       </c>
       <c r="P19" t="n">
-        <v>2330.263556663728</v>
+        <v>2330.263556663727</v>
       </c>
       <c r="Q19" t="n">
-        <v>2461.918950693151</v>
+        <v>2461.91895069315</v>
       </c>
       <c r="R19" t="n">
-        <v>2416.482563165843</v>
+        <v>2461.91895069315</v>
       </c>
       <c r="S19" t="n">
-        <v>2261.557269175203</v>
+        <v>2306.99365670251</v>
       </c>
       <c r="T19" t="n">
-        <v>2072.904613064366</v>
+        <v>2118.341000591673</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.746364306894</v>
+        <v>1861.1827518342</v>
       </c>
       <c r="V19" t="n">
-        <v>1592.991373426475</v>
+        <v>1638.427760953782</v>
       </c>
       <c r="W19" t="n">
-        <v>1335.503700714983</v>
+        <v>1380.94008824229</v>
       </c>
       <c r="X19" t="n">
-        <v>1139.443647142435</v>
+        <v>1184.880034669741</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.5805653243732</v>
+        <v>996.0169528516794</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2119.566580433992</v>
+        <v>2119.566580433993</v>
       </c>
       <c r="C20" t="n">
-        <v>1782.533560819049</v>
+        <v>1782.53356081905</v>
       </c>
       <c r="D20" t="n">
         <v>1456.197359537768</v>
@@ -5738,58 +5738,58 @@
         <v>1102.338604264992</v>
       </c>
       <c r="F20" t="n">
-        <v>723.2821968008532</v>
+        <v>723.2821968008531</v>
       </c>
       <c r="G20" t="n">
-        <v>340.7572461665006</v>
+        <v>340.7572461665007</v>
       </c>
       <c r="H20" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="I20" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="J20" t="n">
-        <v>321.7197547946571</v>
+        <v>321.7197547946558</v>
       </c>
       <c r="K20" t="n">
-        <v>732.58694250491</v>
+        <v>732.5869425049084</v>
       </c>
       <c r="L20" t="n">
-        <v>1279.205782079392</v>
+        <v>1279.20578207939</v>
       </c>
       <c r="M20" t="n">
-        <v>1919.094000724848</v>
+        <v>1919.094000724846</v>
       </c>
       <c r="N20" t="n">
-        <v>2573.950088109357</v>
+        <v>2573.950088109354</v>
       </c>
       <c r="O20" t="n">
-        <v>3178.976860646708</v>
+        <v>3178.976860646706</v>
       </c>
       <c r="P20" t="n">
-        <v>3660.852212359286</v>
+        <v>3660.852212359284</v>
       </c>
       <c r="Q20" t="n">
-        <v>3974.547786707334</v>
+        <v>3974.547786707332</v>
       </c>
       <c r="R20" t="n">
-        <v>4071.612904107444</v>
+        <v>4071.612904107442</v>
       </c>
       <c r="S20" t="n">
-        <v>4071.612904107444</v>
+        <v>4007.334457982726</v>
       </c>
       <c r="T20" t="n">
-        <v>3900.269958426546</v>
+        <v>3835.991512301828</v>
       </c>
       <c r="U20" t="n">
-        <v>3678.718419201466</v>
+        <v>3614.439973076748</v>
       </c>
       <c r="V20" t="n">
-        <v>3379.585029183364</v>
+        <v>3315.306583058646</v>
       </c>
       <c r="W20" t="n">
-        <v>3058.745871238718</v>
+        <v>3173.9830187586</v>
       </c>
       <c r="X20" t="n">
         <v>2832.446757822989</v>
@@ -5814,19 +5814,19 @@
         <v>618.1678372508577</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9303822454023</v>
+        <v>458.9303822454021</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3958242722872</v>
+        <v>312.3958242722871</v>
       </c>
       <c r="G21" t="n">
-        <v>176.3633844303749</v>
+        <v>176.3633844303748</v>
       </c>
       <c r="H21" t="n">
-        <v>89.05497268527735</v>
+        <v>89.05497268527731</v>
       </c>
       <c r="I21" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="J21" t="n">
         <v>205.7279980329772</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>871.9488409701644</v>
+        <v>871.9488409701657</v>
       </c>
       <c r="C22" t="n">
-        <v>734.9421553677262</v>
+        <v>734.9421553677274</v>
       </c>
       <c r="D22" t="n">
-        <v>616.7550132808591</v>
+        <v>616.7550132808602</v>
       </c>
       <c r="E22" t="n">
-        <v>500.7714170239346</v>
+        <v>500.7714170239357</v>
       </c>
       <c r="F22" t="n">
-        <v>385.8109668514929</v>
+        <v>385.8109668514938</v>
       </c>
       <c r="G22" t="n">
-        <v>250.314842060954</v>
+        <v>250.3148420609548</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4918416049116</v>
+        <v>138.4918416049117</v>
       </c>
       <c r="I22" t="n">
-        <v>81.43225808214888</v>
+        <v>81.43225808214883</v>
       </c>
       <c r="J22" t="n">
-        <v>177.0580352538766</v>
+        <v>177.0580352538767</v>
       </c>
       <c r="K22" t="n">
-        <v>443.90567925951</v>
+        <v>443.9056792595101</v>
       </c>
       <c r="L22" t="n">
         <v>832.1536518510001</v>
@@ -5920,40 +5920,40 @@
         <v>1250.194684949353</v>
       </c>
       <c r="N22" t="n">
-        <v>1664.474356830195</v>
+        <v>1664.474356830194</v>
       </c>
       <c r="O22" t="n">
         <v>2033.501324983835</v>
       </c>
       <c r="P22" t="n">
-        <v>2330.263556663728</v>
+        <v>2330.263556663727</v>
       </c>
       <c r="Q22" t="n">
         <v>2461.918950693151</v>
       </c>
       <c r="R22" t="n">
-        <v>2416.482563165843</v>
+        <v>2416.482563165842</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.557269175203</v>
+        <v>2332.644512325768</v>
       </c>
       <c r="T22" t="n">
-        <v>2072.904613064367</v>
+        <v>2143.991856214931</v>
       </c>
       <c r="U22" t="n">
-        <v>1815.746364306894</v>
+        <v>1886.833607457458</v>
       </c>
       <c r="V22" t="n">
-        <v>1592.991373426476</v>
+        <v>1664.07861657704</v>
       </c>
       <c r="W22" t="n">
-        <v>1335.503700714984</v>
+        <v>1406.590943865548</v>
       </c>
       <c r="X22" t="n">
-        <v>1210.530890292997</v>
+        <v>1210.530890292998</v>
       </c>
       <c r="Y22" t="n">
-        <v>1021.667808474935</v>
+        <v>1021.667808474937</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5975,46 +5975,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283565</v>
@@ -6063,16 +6063,16 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
         <v>1522.315654538067</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G25" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443606</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
         <v>857.3827676902786</v>
@@ -6160,37 +6160,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112804</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497861</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216579</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6239,37 +6239,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851457</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>388.0214583249805</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1968.593900456</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O27" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
         <v>2555.644190323788</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042784</v>
@@ -6400,7 +6400,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
@@ -6415,7 +6415,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357083</v>
@@ -6424,7 +6424,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6449,10 +6449,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6464,13 +6464,13 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
         <v>2681.771598889756</v>
@@ -6479,7 +6479,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
         <v>4142.907144767229</v>
@@ -6540,25 +6540,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897931</v>
@@ -6619,13 +6619,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6634,7 +6634,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
         <v>2392.455631028688</v>
@@ -6643,16 +6643,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357083</v>
@@ -6661,7 +6661,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6686,7 +6686,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6716,7 +6716,7 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6728,7 +6728,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400161</v>
@@ -6740,7 +6740,7 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
         <v>2476.13298385146</v>
@@ -6777,22 +6777,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1968.593900456</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O33" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042765</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443593</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
         <v>2144.901839127668</v>
@@ -6892,16 +6892,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1458.09342021658</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796659</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162824</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511481</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511619</v>
@@ -6974,10 +6974,10 @@
         <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y35" t="n">
         <v>2476.132983851458</v>
@@ -7014,22 +7014,22 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>388.0214583249805</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1968.593900456</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039803</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
         <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7114,19 +7114,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400159</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7263,10 +7263,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502098</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609044</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G40" t="n">
         <v>251.294345074944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028685</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597202</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.04923335254</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511622</v>
@@ -7412,22 +7412,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7439,22 +7439,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.552851106135</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O42" t="n">
-        <v>2171.957806054385</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D43" t="n">
         <v>617.6685920609043</v>
@@ -7555,64 +7555,64 @@
         <v>501.6849958039799</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G43" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042765</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443593</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902769</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G44" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7649,22 +7649,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
@@ -7676,7 +7676,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400162</v>
@@ -7731,16 +7731,16 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272128</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10996,7 +10996,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314037</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272128</v>
       </c>
       <c r="K43" t="n">
         <v>106.7437663446525</v>
@@ -23258,25 +23258,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>192.0001458042735</v>
+        <v>155.7085463501228</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>90.92797063740457</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.4303453140384</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>231.376880336889</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>274.0711804384216</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>17.9896554394517</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.24586401568263</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9462261850435</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>113.4115973549828</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>24.07590160458295</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3149728036959</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>88.09919003974908</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.59222600424918</v>
+        <v>76.5922260042492</v>
       </c>
       <c r="S16" t="n">
         <v>184.9862434029471</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1968686221121</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>169.6295162240891</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.090921484063282</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>177.7204377081554</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>25.39434706702454</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.37637071905678</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.98202365203534</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.63566166346867</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,10 +24029,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>177.7204377081549</v>
       </c>
       <c r="X20" t="n">
-        <v>114.0847760446831</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>70.37637071905985</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>70.3763707190562</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.081890215777094e-12</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2.813749233609997e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.451372438372346e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.101341240428155e-12</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815981.8377419595</v>
+        <v>815981.8377419594</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896430.4520752898</v>
+        <v>896430.4520752897</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>960755.928557708</v>
+        <v>960755.9285577076</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>960755.9285577082</v>
+        <v>960755.9285577076</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>979362.7347508288</v>
+        <v>979362.7347508287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>979362.7347508286</v>
+        <v>979362.7347508288</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979362.7347508287</v>
+        <v>979362.7347508288</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>979362.7347508288</v>
+        <v>979362.7347508287</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>979362.7347508288</v>
+        <v>979362.7347508287</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26326,34 +26326,34 @@
         <v>431515.1346605289</v>
       </c>
       <c r="G2" t="n">
-        <v>462993.5593221375</v>
+        <v>462993.5593221374</v>
       </c>
       <c r="H2" t="n">
-        <v>462993.5593221376</v>
+        <v>462993.5593221374</v>
       </c>
       <c r="I2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="J2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="K2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="L2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="M2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="N2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="M2" t="n">
-        <v>472099.017671963</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>472099.0176719629</v>
-      </c>
-      <c r="O2" t="n">
-        <v>472099.0176719629</v>
-      </c>
-      <c r="P2" t="n">
-        <v>472099.017671963</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353244.2765738469</v>
+        <v>353244.2765738435</v>
       </c>
       <c r="C3" t="n">
-        <v>43511.74761818878</v>
+        <v>43511.74761819193</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429536</v>
+        <v>707780.8576429535</v>
       </c>
       <c r="F3" t="n">
-        <v>173736.0360376491</v>
+        <v>173736.036037649</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177117</v>
+        <v>25288.16188177108</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>39037.89416668055</v>
+        <v>39037.8941666809</v>
       </c>
       <c r="J3" t="n">
-        <v>5970.841630864898</v>
+        <v>5970.841630864338</v>
       </c>
       <c r="K3" t="n">
-        <v>6942.380109546916</v>
+        <v>6942.380109547302</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194628</v>
+        <v>41060.19902194616</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383014</v>
       </c>
       <c r="N3" t="n">
-        <v>45679.31917376366</v>
+        <v>45679.31917376363</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346684.9826106109</v>
+        <v>346684.9826106118</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26430,34 +26430,34 @@
         <v>15356.41826761659</v>
       </c>
       <c r="G4" t="n">
-        <v>46681.1499672669</v>
+        <v>46681.1499672668</v>
       </c>
       <c r="H4" t="n">
-        <v>46681.1499672669</v>
+        <v>46681.1499672668</v>
       </c>
       <c r="I4" t="n">
-        <v>46449.25880112081</v>
+        <v>46449.25880112071</v>
       </c>
       <c r="J4" t="n">
-        <v>46449.25880112079</v>
+        <v>46449.25880112078</v>
       </c>
       <c r="K4" t="n">
         <v>46449.25880112078</v>
       </c>
       <c r="L4" t="n">
-        <v>46449.25880112083</v>
+        <v>46449.25880112081</v>
       </c>
       <c r="M4" t="n">
         <v>46449.25880112091</v>
       </c>
       <c r="N4" t="n">
-        <v>46449.25880112077</v>
+        <v>46449.25880112089</v>
       </c>
       <c r="O4" t="n">
-        <v>46449.25880112079</v>
+        <v>46449.25880112084</v>
       </c>
       <c r="P4" t="n">
-        <v>46449.25880112073</v>
+        <v>46449.25880112078</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42833.58292690804</v>
+        <v>42833.58292690787</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26479,19 +26479,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>88963.40690525349</v>
+        <v>88963.40690525346</v>
       </c>
       <c r="G5" t="n">
-        <v>91620.84500680177</v>
+        <v>91620.84500680173</v>
       </c>
       <c r="H5" t="n">
-        <v>91620.84500680177</v>
+        <v>91620.84500680174</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
@@ -26500,13 +26500,13 @@
         <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215527</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-270663.8244394028</v>
+        <v>-270663.8244394003</v>
       </c>
       <c r="C6" t="n">
-        <v>50024.04461586119</v>
+        <v>50024.04461585816</v>
       </c>
       <c r="D6" t="n">
         <v>28762.63785476801</v>
       </c>
       <c r="E6" t="n">
-        <v>-405200.4331749904</v>
+        <v>-405548.0521047964</v>
       </c>
       <c r="F6" t="n">
-        <v>153459.2734500097</v>
+        <v>153282.8217847426</v>
       </c>
       <c r="G6" t="n">
-        <v>299403.4024662977</v>
+        <v>299363.8135169507</v>
       </c>
       <c r="H6" t="n">
-        <v>324691.564348069</v>
+        <v>324651.9753987216</v>
       </c>
       <c r="I6" t="n">
-        <v>291505.4306020064</v>
+        <v>291505.430602006</v>
       </c>
       <c r="J6" t="n">
-        <v>324572.483137822</v>
+        <v>324572.4831378224</v>
       </c>
       <c r="K6" t="n">
-        <v>323600.94465914</v>
+        <v>323600.9446591396</v>
       </c>
       <c r="L6" t="n">
-        <v>289483.1257467406</v>
+        <v>289483.1257467407</v>
       </c>
       <c r="M6" t="n">
-        <v>151293.6798303855</v>
+        <v>151293.6798303854</v>
       </c>
       <c r="N6" t="n">
         <v>284864.0055949232</v>
@@ -26561,7 +26561,7 @@
         <v>330543.3247686868</v>
       </c>
       <c r="P6" t="n">
-        <v>330543.324768687</v>
+        <v>330543.3247686868</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221396</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>31.61020235221396</v>
       </c>
-      <c r="I2" t="n">
-        <v>31.61020235221396</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221401</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221399</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622758</v>
+        <v>358.646685862273</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,22 +26796,22 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>1017.903226026861</v>
+        <v>1017.90322602686</v>
       </c>
       <c r="G4" t="n">
-        <v>1017.903226026861</v>
+        <v>1017.90322602686</v>
       </c>
       <c r="H4" t="n">
-        <v>1017.903226026861</v>
+        <v>1017.90322602686</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
         <v>1062.255112188953</v>
@@ -26823,7 +26823,7 @@
         <v>1062.255112188952</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-7.460698725481052e-14</v>
+        <v>1.385558334732195e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-6.750155989720952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622758</v>
+        <v>358.646685862273</v>
       </c>
       <c r="C3" t="n">
-        <v>38.21325740529221</v>
+        <v>38.213257405295</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.660949394796</v>
+        <v>613.6609493947958</v>
       </c>
       <c r="F3" t="n">
         <v>152.1907655911216</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>36.19240443570288</v>
+        <v>36.19240443570311</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="C4" t="n">
-        <v>26.97452717333468</v>
+        <v>26.97452717333663</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
-        <v>186.5017706245682</v>
+        <v>186.5017706245678</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,25 +27030,25 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.35188616209189</v>
+        <v>44.35188616209257</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378949</v>
+        <v>22.82047985378777</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333513</v>
+        <v>26.97452717333663</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773686</v>
+        <v>719.2887952773685</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245686</v>
+        <v>186.5017706245678</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333468</v>
+        <v>26.97452717333663</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245682</v>
+        <v>186.5017706245678</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,19 +27391,19 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>394.4921319329475</v>
       </c>
       <c r="H2" t="n">
-        <v>324.7090116772263</v>
+        <v>324.7090116772264</v>
       </c>
       <c r="I2" t="n">
-        <v>154.8910599957109</v>
+        <v>154.8910599957113</v>
       </c>
       <c r="J2" t="n">
-        <v>58.67529486154724</v>
+        <v>58.6752948615482</v>
       </c>
       <c r="K2" t="n">
-        <v>13.86754861127716</v>
+        <v>13.86754861128054</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18.39310061141715</v>
+        <v>23.9009686784768</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.60797209390742</v>
+        <v>66.60797209390864</v>
       </c>
       <c r="R2" t="n">
-        <v>125.0173372883183</v>
+        <v>125.017337288319</v>
       </c>
       <c r="S2" t="n">
-        <v>176.1651495698167</v>
+        <v>176.165149569817</v>
       </c>
       <c r="T2" t="n">
-        <v>216.7843887908163</v>
+        <v>216.7843887908164</v>
       </c>
       <c r="U2" t="n">
         <v>251.2303092500717</v>
@@ -27473,13 +27473,13 @@
         <v>136.5720884426767</v>
       </c>
       <c r="H3" t="n">
-        <v>97.95740610601329</v>
+        <v>104.7850668566028</v>
       </c>
       <c r="I3" t="n">
-        <v>50.1417446365981</v>
+        <v>66.13456373980148</v>
       </c>
       <c r="J3" t="n">
-        <v>31.13405001892123</v>
+        <v>31.13405001892376</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.68909474793273</v>
+        <v>18.68909474793546</v>
       </c>
       <c r="R3" t="n">
-        <v>97.78325410484717</v>
+        <v>74.96277425105956</v>
       </c>
       <c r="S3" t="n">
-        <v>157.3542209658497</v>
+        <v>157.3542209658498</v>
       </c>
       <c r="T3" t="n">
         <v>197.0553295975817</v>
@@ -27555,34 +27555,34 @@
         <v>156.47706662591</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0012415365631</v>
+        <v>136.0012415365632</v>
       </c>
       <c r="J4" t="n">
-        <v>81.27090871888925</v>
+        <v>81.2709087188896</v>
       </c>
       <c r="K4" t="n">
-        <v>53.87383775545533</v>
+        <v>53.87383775545591</v>
       </c>
       <c r="L4" t="n">
-        <v>38.73208774694879</v>
+        <v>38.73208774694953</v>
       </c>
       <c r="M4" t="n">
-        <v>37.54636092591291</v>
+        <v>37.5463609259137</v>
       </c>
       <c r="N4" t="n">
-        <v>28.71669752884479</v>
+        <v>28.71669752884556</v>
       </c>
       <c r="O4" t="n">
-        <v>47.04278973402859</v>
+        <v>47.0427897340293</v>
       </c>
       <c r="P4" t="n">
-        <v>59.50774980797196</v>
+        <v>59.50774980797256</v>
       </c>
       <c r="Q4" t="n">
-        <v>97.3493520642422</v>
+        <v>97.34935206424262</v>
       </c>
       <c r="R4" t="n">
-        <v>148.2136125529922</v>
+        <v>148.2136125529924</v>
       </c>
       <c r="S4" t="n">
         <v>212.7456849747103</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>381.0209587948188</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8746297643425</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>148.9685811771479</v>
+        <v>99.17357415002331</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2236106924079309</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
@@ -27707,16 +27707,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>86.69488686188785</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>87.54325028331237</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>20.3372734007017</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>92.6799817290989</v>
+        <v>42.88497470197427</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>106.0324861546552</v>
       </c>
       <c r="T6" t="n">
-        <v>196.7240278659264</v>
+        <v>146.9290208388017</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>213.0432923925209</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>300.7304327601563</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27871,10 +27871,10 @@
         <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>53.54793503871205</v>
+        <v>24.57246563410433</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519758</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
         <v>214.717169359623</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.42052352494369</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.3118196149175</v>
       </c>
       <c r="D9" t="n">
         <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047729</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27986,13 +27986,13 @@
         <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>136.3817349483109</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.582323035996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28038,10 +28038,10 @@
         <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>3.613446413741165</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>0.7157523946084789</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I17" t="n">
-        <v>17.9896554394517</v>
+        <v>17.98965543945175</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I20" t="n">
         <v>17.9896554394517</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605636</v>
+        <v>12.3803783660569</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.6102023522141</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.441795722059399</v>
+        <v>1.441795722059388</v>
       </c>
       <c r="H2" t="n">
-        <v>14.76579043854083</v>
+        <v>14.76579043854071</v>
       </c>
       <c r="I2" t="n">
-        <v>55.58482957469504</v>
+        <v>55.58482957469461</v>
       </c>
       <c r="J2" t="n">
-        <v>122.370609665139</v>
+        <v>122.3706096651381</v>
       </c>
       <c r="K2" t="n">
-        <v>183.4018225799134</v>
+        <v>183.401822579912</v>
       </c>
       <c r="L2" t="n">
-        <v>227.5261784088889</v>
+        <v>227.5261784088871</v>
       </c>
       <c r="M2" t="n">
-        <v>253.1667130810627</v>
+        <v>253.1667130810607</v>
       </c>
       <c r="N2" t="n">
-        <v>252.2335434503809</v>
+        <v>252.2335434503789</v>
       </c>
       <c r="O2" t="n">
-        <v>242.9263589651358</v>
+        <v>242.9263589651339</v>
       </c>
       <c r="P2" t="n">
-        <v>207.3320270767943</v>
+        <v>207.3320270767927</v>
       </c>
       <c r="Q2" t="n">
-        <v>155.6977177805421</v>
+        <v>155.6977177805408</v>
       </c>
       <c r="R2" t="n">
-        <v>90.56820052581382</v>
+        <v>90.56820052581311</v>
       </c>
       <c r="S2" t="n">
-        <v>32.85492001642859</v>
+        <v>32.85492001642834</v>
       </c>
       <c r="T2" t="n">
-        <v>6.311460773315023</v>
+        <v>6.311460773314974</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1153436577647519</v>
+        <v>0.115343657764751</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7714287205339518</v>
+        <v>0.7714287205339458</v>
       </c>
       <c r="H3" t="n">
-        <v>7.450377379893694</v>
+        <v>7.450377379893636</v>
       </c>
       <c r="I3" t="n">
-        <v>26.56015550961194</v>
+        <v>26.56015550961174</v>
       </c>
       <c r="J3" t="n">
-        <v>72.88309679395552</v>
+        <v>72.88309679395495</v>
       </c>
       <c r="K3" t="n">
-        <v>124.5688210697303</v>
+        <v>124.5688210697293</v>
       </c>
       <c r="L3" t="n">
-        <v>161.3748596336641</v>
+        <v>161.3748596336622</v>
       </c>
       <c r="M3" t="n">
-        <v>150.6978305711075</v>
+        <v>164.9545137758063</v>
       </c>
       <c r="N3" t="n">
-        <v>154.1621919371233</v>
+        <v>153.2401523470693</v>
       </c>
       <c r="O3" t="n">
-        <v>165.4167242982344</v>
+        <v>165.4167242982324</v>
       </c>
       <c r="P3" t="n">
-        <v>147.3090510289789</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.47219948429884</v>
+        <v>98.47219948429807</v>
       </c>
       <c r="R3" t="n">
-        <v>47.89624985911678</v>
+        <v>47.89624985911641</v>
       </c>
       <c r="S3" t="n">
-        <v>14.32895013798809</v>
+        <v>14.32895013798798</v>
       </c>
       <c r="T3" t="n">
-        <v>3.109399097239919</v>
+        <v>3.109399097239895</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05075188950881264</v>
+        <v>0.05075188950881224</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6467399253254154</v>
+        <v>0.6467399253254104</v>
       </c>
       <c r="H4" t="n">
-        <v>5.750105881529606</v>
+        <v>5.750105881529562</v>
       </c>
       <c r="I4" t="n">
-        <v>19.44923339069522</v>
+        <v>19.44923339069507</v>
       </c>
       <c r="J4" t="n">
-        <v>45.72451272050687</v>
+        <v>45.72451272050651</v>
       </c>
       <c r="K4" t="n">
-        <v>75.13942041508005</v>
+        <v>75.13942041507947</v>
       </c>
       <c r="L4" t="n">
-        <v>96.15258853428949</v>
+        <v>96.15258853428875</v>
       </c>
       <c r="M4" t="n">
-        <v>101.3794230216921</v>
+        <v>101.3794230216914</v>
       </c>
       <c r="N4" t="n">
-        <v>98.9688469363884</v>
+        <v>98.96884693638764</v>
       </c>
       <c r="O4" t="n">
-        <v>91.4137487178142</v>
+        <v>91.41374871781349</v>
       </c>
       <c r="P4" t="n">
-        <v>78.22025424117565</v>
+        <v>78.22025424117506</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.15564956520365</v>
+        <v>54.15564956520323</v>
       </c>
       <c r="R4" t="n">
-        <v>29.07977882417731</v>
+        <v>29.07977882417708</v>
       </c>
       <c r="S4" t="n">
-        <v>11.27091306226201</v>
+        <v>11.27091306226192</v>
       </c>
       <c r="T4" t="n">
-        <v>2.763343317299501</v>
+        <v>2.76334331729948</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03527672319956815</v>
+        <v>0.03527672319956788</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31376,10 +31376,10 @@
         <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0991627102423</v>
+        <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P6" t="n">
         <v>163.0046057545602</v>
@@ -31604,7 +31604,7 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969364</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>222.3595307837911</v>
@@ -31613,13 +31613,13 @@
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>216.6986083828519</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>141.2741087697571</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.992834034912237</v>
+        <v>4.992834034912236</v>
       </c>
       <c r="H14" t="n">
-        <v>51.13286156004496</v>
+        <v>51.13286156004495</v>
       </c>
       <c r="I14" t="n">
         <v>192.4862341309542</v>
       </c>
       <c r="J14" t="n">
-        <v>423.7605476706329</v>
+        <v>423.7605476706328</v>
       </c>
       <c r="K14" t="n">
-        <v>635.107212368468</v>
+        <v>635.1072123684679</v>
       </c>
       <c r="L14" t="n">
-        <v>787.9066569644135</v>
+        <v>787.9066569644134</v>
       </c>
       <c r="M14" t="n">
-        <v>876.697969232784</v>
+        <v>876.6979692327839</v>
       </c>
       <c r="N14" t="n">
-        <v>890.8838589344784</v>
+        <v>890.8838589344783</v>
       </c>
       <c r="O14" t="n">
-        <v>841.2363654998198</v>
+        <v>841.2363654998197</v>
       </c>
       <c r="P14" t="n">
-        <v>717.9757752629239</v>
+        <v>717.9757752629238</v>
       </c>
       <c r="Q14" t="n">
-        <v>539.1699063876292</v>
+        <v>539.1699063876291</v>
       </c>
       <c r="R14" t="n">
-        <v>313.6311109455561</v>
+        <v>313.631110945556</v>
       </c>
       <c r="S14" t="n">
         <v>113.7742055705627</v>
@@ -32029,7 +32029,7 @@
         <v>21.85613098782833</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3994267227929789</v>
+        <v>0.3994267227929788</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>2.671401719717431</v>
       </c>
       <c r="H15" t="n">
-        <v>25.80011660884994</v>
+        <v>25.80011660884993</v>
       </c>
       <c r="I15" t="n">
-        <v>91.97589254290281</v>
+        <v>91.97589254290278</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>252.3888791422508</v>
       </c>
       <c r="K15" t="n">
-        <v>431.3727943633188</v>
+        <v>431.3727943633187</v>
       </c>
       <c r="L15" t="n">
-        <v>157.4950081096718</v>
+        <v>580.0339567307519</v>
       </c>
       <c r="M15" t="n">
-        <v>676.8722690705088</v>
+        <v>676.8722690705087</v>
       </c>
       <c r="N15" t="n">
-        <v>694.7870639365087</v>
+        <v>694.7870639365085</v>
       </c>
       <c r="O15" t="n">
-        <v>635.5944258311908</v>
+        <v>308.7062729782967</v>
       </c>
       <c r="P15" t="n">
-        <v>510.1205617239366</v>
+        <v>510.1205617239365</v>
       </c>
       <c r="Q15" t="n">
-        <v>341.0020861870883</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>165.8612401066666</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>49.62011527633033</v>
+        <v>49.62011527633032</v>
       </c>
       <c r="T15" t="n">
         <v>10.76762359833473</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1757501131393048</v>
+        <v>0.1757501131393047</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.239613463611249</v>
+        <v>2.239613463611248</v>
       </c>
       <c r="H16" t="n">
         <v>19.91219970374366</v>
       </c>
       <c r="I16" t="n">
-        <v>67.35128488750921</v>
+        <v>67.35128488750919</v>
       </c>
       <c r="J16" t="n">
         <v>158.3406718773153</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2023642268341</v>
+        <v>260.202364226834</v>
       </c>
       <c r="L16" t="n">
         <v>332.9694416718033</v>
@@ -32166,7 +32166,7 @@
         <v>351.0695904822614</v>
       </c>
       <c r="N16" t="n">
-        <v>342.7219402997107</v>
+        <v>342.7219402997106</v>
       </c>
       <c r="O16" t="n">
         <v>316.5591830202519</v>
@@ -32181,10 +32181,10 @@
         <v>100.7011653729203</v>
       </c>
       <c r="S16" t="n">
-        <v>39.03035463402511</v>
+        <v>39.0303546340251</v>
       </c>
       <c r="T16" t="n">
-        <v>9.569257526338969</v>
+        <v>9.569257526338967</v>
       </c>
       <c r="U16" t="n">
         <v>0.1221607343787955</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.992834034912237</v>
+        <v>4.992834034912236</v>
       </c>
       <c r="H17" t="n">
-        <v>51.13286156004496</v>
+        <v>51.13286156004495</v>
       </c>
       <c r="I17" t="n">
         <v>192.4862341309542</v>
       </c>
       <c r="J17" t="n">
-        <v>423.7605476706329</v>
+        <v>423.7605476706328</v>
       </c>
       <c r="K17" t="n">
-        <v>635.107212368468</v>
+        <v>635.1072123684679</v>
       </c>
       <c r="L17" t="n">
-        <v>787.9066569644135</v>
+        <v>787.9066569644134</v>
       </c>
       <c r="M17" t="n">
-        <v>876.697969232784</v>
+        <v>876.6979692327839</v>
       </c>
       <c r="N17" t="n">
-        <v>890.8838589344784</v>
+        <v>890.8838589344783</v>
       </c>
       <c r="O17" t="n">
-        <v>841.2363654998198</v>
+        <v>841.2363654998197</v>
       </c>
       <c r="P17" t="n">
-        <v>717.9757752629239</v>
+        <v>717.9757752629238</v>
       </c>
       <c r="Q17" t="n">
-        <v>539.1699063876292</v>
+        <v>539.1699063876291</v>
       </c>
       <c r="R17" t="n">
-        <v>313.6311109455561</v>
+        <v>313.631110945556</v>
       </c>
       <c r="S17" t="n">
         <v>113.7742055705627</v>
@@ -32266,7 +32266,7 @@
         <v>21.85613098782833</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3994267227929789</v>
+        <v>0.3994267227929788</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,31 +32306,31 @@
         <v>2.671401719717431</v>
       </c>
       <c r="H18" t="n">
-        <v>25.80011660884994</v>
+        <v>25.80011660884993</v>
       </c>
       <c r="I18" t="n">
-        <v>91.97589254290281</v>
+        <v>91.97589254290278</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>252.3888791422508</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>431.3727943633187</v>
       </c>
       <c r="L18" t="n">
-        <v>580.033956730752</v>
+        <v>580.0339567307519</v>
       </c>
       <c r="M18" t="n">
-        <v>568.0464119810908</v>
+        <v>676.8722690705087</v>
       </c>
       <c r="N18" t="n">
-        <v>694.7870639365087</v>
+        <v>694.7870639365085</v>
       </c>
       <c r="O18" t="n">
-        <v>635.5944258311908</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>510.1205617239366</v>
+        <v>475.2102781567219</v>
       </c>
       <c r="Q18" t="n">
         <v>341.0020861870883</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>49.62011527633033</v>
+        <v>49.62011527633032</v>
       </c>
       <c r="T18" t="n">
         <v>10.76762359833473</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1757501131393048</v>
+        <v>0.1757501131393047</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.239613463611249</v>
+        <v>2.239613463611248</v>
       </c>
       <c r="H19" t="n">
         <v>19.91219970374366</v>
       </c>
       <c r="I19" t="n">
-        <v>67.35128488750921</v>
+        <v>67.35128488750919</v>
       </c>
       <c r="J19" t="n">
         <v>158.3406718773153</v>
       </c>
       <c r="K19" t="n">
-        <v>260.2023642268341</v>
+        <v>260.202364226834</v>
       </c>
       <c r="L19" t="n">
         <v>332.9694416718033</v>
@@ -32403,7 +32403,7 @@
         <v>351.0695904822614</v>
       </c>
       <c r="N19" t="n">
-        <v>342.7219402997107</v>
+        <v>342.7219402997106</v>
       </c>
       <c r="O19" t="n">
         <v>316.5591830202519</v>
@@ -32418,10 +32418,10 @@
         <v>100.7011653729203</v>
       </c>
       <c r="S19" t="n">
-        <v>39.03035463402511</v>
+        <v>39.0303546340251</v>
       </c>
       <c r="T19" t="n">
-        <v>9.569257526338969</v>
+        <v>9.569257526338967</v>
       </c>
       <c r="U19" t="n">
         <v>0.1221607343787955</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>272.5760810583997</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33035,13 +33035,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>215.4343416764904</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
         <v>443.943509024727</v>
@@ -33272,7 +33272,7 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>194.5247275202073</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
@@ -33281,7 +33281,7 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33509,13 +33509,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>215.4343416764904</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
@@ -33746,13 +33746,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>215.4343416764904</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33983,13 +33983,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>663.5877533333045</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,10 +34208,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155584</v>
@@ -34220,13 +34220,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O42" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>521.5364117268584</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34451,19 +34451,19 @@
         <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>545.4906045327998</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="N2" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="O2" t="n">
-        <v>12.82814754344906</v>
+        <v>12.82814754344719</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="M3" t="n">
-        <v>8.563796649089143</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="N3" t="n">
-        <v>22.82047985378995</v>
+        <v>21.89844026373596</v>
       </c>
       <c r="O3" t="n">
-        <v>22.82047985378995</v>
+        <v>22.82047985378799</v>
       </c>
       <c r="P3" t="n">
-        <v>13.33464361464868</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35024,10 +35024,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P6" t="n">
         <v>29.03019834022993</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.52793472257738</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>83.8051510039169</v>
@@ -35261,13 +35261,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>85.35689629951858</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>7.299701355426831</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>242.7146431439466</v>
+        <v>242.7146431439465</v>
       </c>
       <c r="K14" t="n">
-        <v>415.0173613234875</v>
+        <v>415.0173613234874</v>
       </c>
       <c r="L14" t="n">
-        <v>552.1402419944263</v>
+        <v>552.1402419944261</v>
       </c>
       <c r="M14" t="n">
-        <v>646.3517360055113</v>
+        <v>646.3517360055112</v>
       </c>
       <c r="N14" t="n">
         <v>661.4707953378875</v>
       </c>
       <c r="O14" t="n">
-        <v>611.1381540781331</v>
+        <v>611.138154078133</v>
       </c>
       <c r="P14" t="n">
-        <v>486.7427795076543</v>
+        <v>486.7427795076542</v>
       </c>
       <c r="Q14" t="n">
-        <v>316.8642165131797</v>
+        <v>316.8642165131796</v>
       </c>
       <c r="R14" t="n">
-        <v>98.04557313142396</v>
+        <v>98.04557313142391</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>125.5512524755841</v>
       </c>
       <c r="K15" t="n">
-        <v>293.5313553889598</v>
+        <v>293.5313553889597</v>
       </c>
       <c r="L15" t="n">
-        <v>18.94062832979758</v>
+        <v>441.4795769508777</v>
       </c>
       <c r="M15" t="n">
-        <v>534.7382351484905</v>
+        <v>534.7382351484903</v>
       </c>
       <c r="N15" t="n">
-        <v>563.4453518531755</v>
+        <v>563.4453518531752</v>
       </c>
       <c r="O15" t="n">
-        <v>492.9981813867464</v>
+        <v>166.1100285338523</v>
       </c>
       <c r="P15" t="n">
-        <v>376.1461543096063</v>
+        <v>376.1461543096062</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.0203121010668</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.18173614270262</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.98149176064251</v>
+        <v>64.98149176064248</v>
       </c>
       <c r="K16" t="n">
-        <v>237.9328724009513</v>
+        <v>237.9328724009512</v>
       </c>
       <c r="L16" t="n">
         <v>360.5594669321194</v>
@@ -35817,10 +35817,10 @@
         <v>386.8541126789393</v>
       </c>
       <c r="O16" t="n">
-        <v>341.1443109342916</v>
+        <v>341.1443109342915</v>
       </c>
       <c r="P16" t="n">
-        <v>268.1496276274757</v>
+        <v>268.1496276274756</v>
       </c>
       <c r="Q16" t="n">
         <v>101.375044142153</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>242.7146431439466</v>
+        <v>242.7146431439465</v>
       </c>
       <c r="K17" t="n">
-        <v>415.0173613234875</v>
+        <v>415.0173613234874</v>
       </c>
       <c r="L17" t="n">
-        <v>552.1402419944263</v>
+        <v>552.1402419944261</v>
       </c>
       <c r="M17" t="n">
-        <v>646.3517360055113</v>
+        <v>646.3517360055112</v>
       </c>
       <c r="N17" t="n">
         <v>661.4707953378875</v>
       </c>
       <c r="O17" t="n">
-        <v>611.1381540781331</v>
+        <v>611.138154078133</v>
       </c>
       <c r="P17" t="n">
-        <v>486.7427795076543</v>
+        <v>486.7427795076542</v>
       </c>
       <c r="Q17" t="n">
-        <v>316.8642165131797</v>
+        <v>316.8642165131796</v>
       </c>
       <c r="R17" t="n">
-        <v>98.04557313142396</v>
+        <v>98.04557313142391</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>125.5512524755841</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>293.5313553889597</v>
       </c>
       <c r="L18" t="n">
-        <v>441.4795769508779</v>
+        <v>441.4795769508777</v>
       </c>
       <c r="M18" t="n">
-        <v>425.9123780590725</v>
+        <v>534.7382351484903</v>
       </c>
       <c r="N18" t="n">
-        <v>563.4453518531755</v>
+        <v>563.4453518531752</v>
       </c>
       <c r="O18" t="n">
-        <v>492.9981813867464</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>376.1461543096063</v>
+        <v>341.2358707423916</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.0203121010668</v>
+        <v>201.0203121010667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.59169411285647</v>
+        <v>96.59169411285635</v>
       </c>
       <c r="K19" t="n">
-        <v>269.5430747531652</v>
+        <v>269.5430747531651</v>
       </c>
       <c r="L19" t="n">
-        <v>392.1696692843334</v>
+        <v>392.1696692843333</v>
       </c>
       <c r="M19" t="n">
-        <v>422.263669796316</v>
+        <v>422.2636697963158</v>
       </c>
       <c r="N19" t="n">
-        <v>418.4643150311532</v>
+        <v>418.4643150311531</v>
       </c>
       <c r="O19" t="n">
-        <v>372.7545132865055</v>
+        <v>372.7545132865054</v>
       </c>
       <c r="P19" t="n">
-        <v>299.7598299796896</v>
+        <v>299.7598299796895</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.985246494367</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.59169411285647</v>
+        <v>96.59169411285637</v>
       </c>
       <c r="K22" t="n">
-        <v>269.5430747531652</v>
+        <v>269.5430747531651</v>
       </c>
       <c r="L22" t="n">
-        <v>392.1696692843334</v>
+        <v>392.1696692843333</v>
       </c>
       <c r="M22" t="n">
-        <v>422.263669796316</v>
+        <v>422.2636697963159</v>
       </c>
       <c r="N22" t="n">
-        <v>418.4643150311532</v>
+        <v>418.4643150311531</v>
       </c>
       <c r="O22" t="n">
-        <v>372.7545132865055</v>
+        <v>372.7545132865054</v>
       </c>
       <c r="P22" t="n">
-        <v>299.7598299796896</v>
+        <v>299.7598299796895</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.985246494367</v>
+        <v>132.9852464943669</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>141.2343689750664</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36683,13 +36683,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>81.45993426216013</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
         <v>306.102070050368</v>
@@ -36920,7 +36920,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>63.18301543687397</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
@@ -36929,7 +36929,7 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37157,13 +37157,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O33" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>81.45993426216013</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193538</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37233,19 +37233,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.392376674115752e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>255.0635279116842</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
@@ -37394,13 +37394,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>81.45993426216013</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37631,13 +37631,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>532.2460412499712</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O39" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.653334055302</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356842</v>
@@ -37868,13 +37868,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O42" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193538</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>406.9362247529257</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
